--- a/Code/Results/Cases/Case_0_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_98/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.316610757446901</v>
+        <v>6.673343051422484</v>
       </c>
       <c r="D2">
-        <v>4.889959809466459</v>
+        <v>5.734513289306478</v>
       </c>
       <c r="E2">
-        <v>11.0435406380346</v>
+        <v>11.31826408210318</v>
       </c>
       <c r="F2">
-        <v>20.60840439085034</v>
+        <v>42.14967022228711</v>
       </c>
       <c r="G2">
-        <v>35.09753968823755</v>
+        <v>52.80682490552394</v>
       </c>
       <c r="H2">
-        <v>9.239652135156156</v>
+        <v>20.31745731006703</v>
       </c>
       <c r="I2">
-        <v>15.41042388880027</v>
+        <v>32.79796680540149</v>
       </c>
       <c r="J2">
-        <v>7.889659774740923</v>
+        <v>9.529443551007709</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.563581215653041</v>
+        <v>9.375771395673613</v>
       </c>
       <c r="M2">
-        <v>99.39797103822087</v>
+        <v>61.43846333124413</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.251909234150529</v>
+        <v>6.681041832947805</v>
       </c>
       <c r="D3">
-        <v>4.700116810472861</v>
+        <v>5.687414038674131</v>
       </c>
       <c r="E3">
-        <v>10.13585582757201</v>
+        <v>11.2613235182166</v>
       </c>
       <c r="F3">
-        <v>19.57904945072198</v>
+        <v>42.74915512258869</v>
       </c>
       <c r="G3">
-        <v>31.8993164164901</v>
+        <v>53.53667225040169</v>
       </c>
       <c r="H3">
-        <v>9.157451838382732</v>
+        <v>20.54675264338139</v>
       </c>
       <c r="I3">
-        <v>14.78332856943119</v>
+        <v>33.23912315327222</v>
       </c>
       <c r="J3">
-        <v>7.21817092895802</v>
+        <v>9.569899224022988</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.864870726905375</v>
+        <v>9.372842443310841</v>
       </c>
       <c r="M3">
-        <v>91.88431455841891</v>
+        <v>58.23483566748132</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.21570359177236</v>
+        <v>6.686801126405119</v>
       </c>
       <c r="D4">
-        <v>4.580848708806476</v>
+        <v>5.658205573558097</v>
       </c>
       <c r="E4">
-        <v>9.57566732859682</v>
+        <v>11.22932914586932</v>
       </c>
       <c r="F4">
-        <v>19.25501163644942</v>
+        <v>43.1390554449941</v>
       </c>
       <c r="G4">
-        <v>30.4242494987341</v>
+        <v>54.02072405493974</v>
       </c>
       <c r="H4">
-        <v>9.199618611822318</v>
+        <v>20.6955840357793</v>
       </c>
       <c r="I4">
-        <v>14.6728789009695</v>
+        <v>33.52559033610807</v>
       </c>
       <c r="J4">
-        <v>6.806039892879828</v>
+        <v>9.597555175733657</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.432054828069274</v>
+        <v>9.373477962316091</v>
       </c>
       <c r="M4">
-        <v>87.16809509495181</v>
+        <v>56.16797407622531</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.201724460598204</v>
+        <v>6.689407651803537</v>
       </c>
       <c r="D5">
-        <v>4.53158282329282</v>
+        <v>5.646235863479674</v>
       </c>
       <c r="E5">
-        <v>9.345561376436475</v>
+        <v>11.21704091147557</v>
       </c>
       <c r="F5">
-        <v>19.18865818117168</v>
+        <v>43.30336136916682</v>
       </c>
       <c r="G5">
-        <v>29.90522953018835</v>
+        <v>54.22681461200769</v>
       </c>
       <c r="H5">
-        <v>9.236024159587419</v>
+        <v>20.75824091056126</v>
       </c>
       <c r="I5">
-        <v>14.67322286196676</v>
+        <v>33.64620907896523</v>
       </c>
       <c r="J5">
-        <v>6.637183657023485</v>
+        <v>9.609525829153192</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.253854063884739</v>
+        <v>9.37434494655623</v>
       </c>
       <c r="M5">
-        <v>85.21351157730956</v>
+        <v>55.30108309999704</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.199447402461151</v>
+        <v>6.689856140926112</v>
       </c>
       <c r="D6">
-        <v>4.523362866465903</v>
+        <v>5.644244422177898</v>
       </c>
       <c r="E6">
-        <v>9.307215599092657</v>
+        <v>11.2150458337274</v>
       </c>
       <c r="F6">
-        <v>19.18131050767789</v>
+        <v>43.33096962518434</v>
       </c>
       <c r="G6">
-        <v>29.82381111518378</v>
+        <v>54.26156384491723</v>
       </c>
       <c r="H6">
-        <v>9.243121355091928</v>
+        <v>20.76876580798456</v>
       </c>
       <c r="I6">
-        <v>14.67578693082479</v>
+        <v>33.66647099991461</v>
       </c>
       <c r="J6">
-        <v>6.60906690610506</v>
+        <v>9.611555650587594</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.224132419055682</v>
+        <v>9.374525512062732</v>
       </c>
       <c r="M6">
-        <v>84.88681247677351</v>
+        <v>55.1556649816991</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.215512049384362</v>
+        <v>6.686835227918285</v>
       </c>
       <c r="D7">
-        <v>4.580186948430466</v>
+        <v>5.658044409650068</v>
       </c>
       <c r="E7">
-        <v>9.572572666699553</v>
+        <v>11.2291603825272</v>
       </c>
       <c r="F7">
-        <v>19.25386418797437</v>
+        <v>43.14124947845234</v>
       </c>
       <c r="G7">
-        <v>30.41692614860029</v>
+        <v>54.0234679433152</v>
       </c>
       <c r="H7">
-        <v>9.200036755555811</v>
+        <v>20.69642094245073</v>
       </c>
       <c r="I7">
-        <v>14.67271044893581</v>
+        <v>33.52720137997697</v>
       </c>
       <c r="J7">
-        <v>6.803767404660359</v>
+        <v>9.597713788967779</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.429659927659971</v>
+        <v>9.3734871983141</v>
       </c>
       <c r="M7">
-        <v>87.14187502638606</v>
+        <v>56.15638189652078</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.293492628372516</v>
+        <v>6.675783356686321</v>
       </c>
       <c r="D8">
-        <v>4.825070269949785</v>
+        <v>5.718336944361003</v>
       </c>
       <c r="E8">
-        <v>10.73039309843745</v>
+        <v>11.29801740182394</v>
       </c>
       <c r="F8">
-        <v>20.17749582759875</v>
+        <v>42.35180345934765</v>
       </c>
       <c r="G8">
-        <v>33.89837955731559</v>
+        <v>53.05089875970305</v>
       </c>
       <c r="H8">
-        <v>9.18946551606005</v>
+        <v>20.39483930904912</v>
       </c>
       <c r="I8">
-        <v>15.07891841252325</v>
+        <v>32.94681549405306</v>
       </c>
       <c r="J8">
-        <v>7.657437134475223</v>
+        <v>9.542803609186384</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.322854294051277</v>
+        <v>9.374253923374026</v>
       </c>
       <c r="M8">
-        <v>96.82386543544553</v>
+        <v>60.35482201737097</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.482188346982062</v>
+        <v>6.662302300687874</v>
       </c>
       <c r="D9">
-        <v>5.283607594084931</v>
+        <v>5.834026725980261</v>
       </c>
       <c r="E9">
-        <v>13.0534875456359</v>
+        <v>11.45641451822917</v>
       </c>
       <c r="F9">
-        <v>26.20711694789036</v>
+        <v>40.98001310785841</v>
       </c>
       <c r="G9">
-        <v>44.25168412631292</v>
+        <v>51.43806692976239</v>
       </c>
       <c r="H9">
-        <v>10.88871109996983</v>
+        <v>19.86800143011201</v>
       </c>
       <c r="I9">
-        <v>19.91019365311992</v>
+        <v>31.93437262008479</v>
       </c>
       <c r="J9">
-        <v>9.396224435384957</v>
+        <v>9.457820782860441</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.10212624331767</v>
+        <v>9.395251550708334</v>
       </c>
       <c r="M9">
-        <v>115.4495321658984</v>
+        <v>67.78013527388318</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.798292167930057</v>
+        <v>6.65739655994985</v>
       </c>
       <c r="D10">
-        <v>5.607652441747487</v>
+        <v>5.917147617584348</v>
       </c>
       <c r="E10">
-        <v>14.9832471858675</v>
+        <v>11.58677636608921</v>
       </c>
       <c r="F10">
-        <v>32.98321684579911</v>
+        <v>40.08445656082965</v>
       </c>
       <c r="G10">
-        <v>54.73493258531988</v>
+        <v>50.4461904755676</v>
       </c>
       <c r="H10">
-        <v>13.43882174947229</v>
+        <v>19.52139066273046</v>
       </c>
       <c r="I10">
-        <v>25.05210826929072</v>
+        <v>31.27006268304687</v>
       </c>
       <c r="J10">
-        <v>10.87112766036339</v>
+        <v>9.409729517744063</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.57075535137172</v>
+        <v>9.42281588868917</v>
       </c>
       <c r="M10">
-        <v>130.0425096545859</v>
+        <v>72.72772105336047</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.052847245013817</v>
+        <v>6.656251688412422</v>
       </c>
       <c r="D11">
-        <v>5.752343568192602</v>
+        <v>5.954486387083196</v>
       </c>
       <c r="E11">
-        <v>16.0169226100643</v>
+        <v>11.64905505046076</v>
       </c>
       <c r="F11">
-        <v>36.96272300472136</v>
+        <v>39.70260467454466</v>
       </c>
       <c r="G11">
-        <v>60.77250573007442</v>
+        <v>50.04006908227124</v>
       </c>
       <c r="H11">
-        <v>14.9222872989004</v>
+        <v>19.37275925630432</v>
       </c>
       <c r="I11">
-        <v>28.01058027906171</v>
+        <v>30.98583113593287</v>
       </c>
       <c r="J11">
-        <v>11.67265730212051</v>
+        <v>9.39108410197402</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.3544169041848</v>
+        <v>9.438045014415234</v>
       </c>
       <c r="M11">
-        <v>137.5025215302139</v>
+        <v>74.86633959651576</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.159390664062707</v>
+        <v>6.655974531167091</v>
       </c>
       <c r="D12">
-        <v>5.806662890998862</v>
+        <v>5.968551917030519</v>
       </c>
       <c r="E12">
-        <v>16.45504470816644</v>
+        <v>11.67306023029652</v>
       </c>
       <c r="F12">
-        <v>38.69878375954217</v>
+        <v>39.56178924431418</v>
       </c>
       <c r="G12">
-        <v>63.38919267640624</v>
+        <v>49.89304734508645</v>
       </c>
       <c r="H12">
-        <v>15.56733558779602</v>
+        <v>19.31780162673316</v>
       </c>
       <c r="I12">
-        <v>29.29284354111463</v>
+        <v>30.88084984459807</v>
       </c>
       <c r="J12">
-        <v>12.01465896067702</v>
+        <v>9.384498508675591</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.68593274180148</v>
+        <v>9.444202925236626</v>
       </c>
       <c r="M12">
-        <v>140.585520743203</v>
+        <v>75.65996881028816</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.135820421777905</v>
+        <v>6.656027265053488</v>
       </c>
       <c r="D13">
-        <v>5.794989668747299</v>
+        <v>5.965526028935384</v>
       </c>
       <c r="E13">
-        <v>16.3578437704301</v>
+        <v>11.66787163941568</v>
       </c>
       <c r="F13">
-        <v>38.31153736224952</v>
+        <v>39.59194623069823</v>
       </c>
       <c r="G13">
-        <v>62.80629542232128</v>
+        <v>49.92440544281484</v>
       </c>
       <c r="H13">
-        <v>15.42355037794904</v>
+        <v>19.32957834254636</v>
       </c>
       <c r="I13">
-        <v>29.00718650688924</v>
+        <v>30.90334040539993</v>
       </c>
       <c r="J13">
-        <v>11.93867120183829</v>
+        <v>9.385895538247722</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.61241685622659</v>
+        <v>9.442859254439799</v>
       </c>
       <c r="M13">
-        <v>139.9056619888188</v>
+        <v>75.48976914020803</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.06135153439492</v>
+        <v>6.656225751799242</v>
       </c>
       <c r="D14">
-        <v>5.756823319043574</v>
+        <v>5.955645079523954</v>
       </c>
       <c r="E14">
-        <v>16.05177504812912</v>
+        <v>11.65102155933261</v>
       </c>
       <c r="F14">
-        <v>37.09989952479692</v>
+        <v>39.69094320939008</v>
       </c>
       <c r="G14">
-        <v>60.97960386912933</v>
+        <v>50.02783620579879</v>
       </c>
       <c r="H14">
-        <v>14.97329905706406</v>
+        <v>19.3682111346081</v>
       </c>
       <c r="I14">
-        <v>28.11205900385638</v>
+        <v>30.97714072542884</v>
       </c>
       <c r="J14">
-        <v>11.69981540164605</v>
+        <v>9.390532720483987</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.38080300883963</v>
+        <v>9.438543770120695</v>
       </c>
       <c r="M14">
-        <v>137.7495176581211</v>
+        <v>74.93195745835089</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.017337503317357</v>
+        <v>6.656367699341955</v>
       </c>
       <c r="D15">
-        <v>5.733377385967348</v>
+        <v>5.949582925303137</v>
       </c>
       <c r="E15">
-        <v>15.87161918592711</v>
+        <v>11.64075510815438</v>
       </c>
       <c r="F15">
-        <v>36.39269325268921</v>
+        <v>39.75207789261471</v>
       </c>
       <c r="G15">
-        <v>59.91126198842177</v>
+        <v>50.09208054724987</v>
       </c>
       <c r="H15">
-        <v>14.71022889436674</v>
+        <v>19.39204828775973</v>
       </c>
       <c r="I15">
-        <v>27.58857474799323</v>
+        <v>31.02269289072506</v>
       </c>
       <c r="J15">
-        <v>11.5595235401547</v>
+        <v>9.393435304104141</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.24438444710683</v>
+        <v>9.435951450298887</v>
       </c>
       <c r="M15">
-        <v>136.4695438256603</v>
+        <v>74.58816708375709</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.7826520510538</v>
+        <v>6.657493257237085</v>
       </c>
       <c r="D16">
-        <v>5.598139109303513</v>
+        <v>5.914697419140227</v>
       </c>
       <c r="E16">
-        <v>14.92033331355302</v>
+        <v>11.58276565849896</v>
       </c>
       <c r="F16">
-        <v>32.74737762671115</v>
+        <v>40.10993470458386</v>
       </c>
       <c r="G16">
-        <v>54.37506327113302</v>
+        <v>50.47366270880151</v>
       </c>
       <c r="H16">
-        <v>13.35065995426448</v>
+        <v>19.53128818267558</v>
       </c>
       <c r="I16">
-        <v>24.87574126532891</v>
+        <v>31.28900505732279</v>
       </c>
       <c r="J16">
-        <v>10.82259606412723</v>
+        <v>9.411013939532856</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.52299128366281</v>
+        <v>9.42187511447673</v>
       </c>
       <c r="M16">
-        <v>129.5801973491981</v>
+        <v>72.58569238351117</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.649416548491243</v>
+        <v>6.658462169072365</v>
       </c>
       <c r="D17">
-        <v>5.514468762212515</v>
+        <v>5.893170904504711</v>
       </c>
       <c r="E17">
-        <v>14.38708346955097</v>
+        <v>11.54794886435324</v>
       </c>
       <c r="F17">
-        <v>30.78352111467542</v>
+        <v>40.33608605990852</v>
       </c>
       <c r="G17">
-        <v>51.36724895559425</v>
+        <v>50.71949678136004</v>
       </c>
       <c r="H17">
-        <v>12.61521282418137</v>
+        <v>19.61904110225014</v>
       </c>
       <c r="I17">
-        <v>23.40137142922647</v>
+        <v>31.45702687740077</v>
       </c>
       <c r="J17">
-        <v>10.41244703151607</v>
+        <v>9.422632751557217</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.11784085287289</v>
+        <v>9.413931669912548</v>
       </c>
       <c r="M17">
-        <v>125.6245319079354</v>
+        <v>71.32844870771694</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.577600094105754</v>
+        <v>6.659121746905148</v>
       </c>
       <c r="D18">
-        <v>5.466095136253215</v>
+        <v>5.880745208809119</v>
       </c>
       <c r="E18">
-        <v>14.09298872164277</v>
+        <v>11.52820372365369</v>
       </c>
       <c r="F18">
-        <v>29.72986694043542</v>
+        <v>40.46855925300766</v>
       </c>
       <c r="G18">
-        <v>49.74408881197314</v>
+        <v>50.8651200896337</v>
       </c>
       <c r="H18">
-        <v>12.21951935155862</v>
+        <v>19.67036385197242</v>
       </c>
       <c r="I18">
-        <v>22.60545750001566</v>
+        <v>31.55535530597948</v>
       </c>
       <c r="J18">
-        <v>10.18716997505951</v>
+        <v>9.429619108711245</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.89415698288013</v>
+        <v>9.409615756872505</v>
       </c>
       <c r="M18">
-        <v>123.4148728351361</v>
+        <v>70.59477076896006</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.568380111763522</v>
+        <v>6.659362633296824</v>
       </c>
       <c r="D19">
-        <v>5.449674006699963</v>
+        <v>5.876530666144155</v>
       </c>
       <c r="E19">
-        <v>13.99519061310862</v>
+        <v>11.52156673560272</v>
       </c>
       <c r="F19">
-        <v>29.38456459423412</v>
+        <v>40.51382084009072</v>
       </c>
       <c r="G19">
-        <v>49.21049448313546</v>
+        <v>50.91514304475726</v>
       </c>
       <c r="H19">
-        <v>12.08964714974452</v>
+        <v>19.68788602811756</v>
       </c>
       <c r="I19">
-        <v>22.34375830620543</v>
+        <v>31.58893535041548</v>
       </c>
       <c r="J19">
-        <v>10.11240326156552</v>
+        <v>9.432036391997272</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.81973535526655</v>
+        <v>9.4081977795484</v>
       </c>
       <c r="M19">
-        <v>122.6757195566746</v>
+        <v>70.34455287010249</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.66330381419012</v>
+        <v>6.658348439901342</v>
       </c>
       <c r="D20">
-        <v>5.523401397781664</v>
+        <v>5.895467056976933</v>
       </c>
       <c r="E20">
-        <v>14.44244271963455</v>
+        <v>11.55162618046133</v>
       </c>
       <c r="F20">
-        <v>30.98431051809112</v>
+        <v>40.31176301613653</v>
       </c>
       <c r="G20">
-        <v>51.67576492280694</v>
+        <v>50.69288793204867</v>
       </c>
       <c r="H20">
-        <v>12.69052340637116</v>
+        <v>19.60961154673912</v>
       </c>
       <c r="I20">
-        <v>23.55262726117439</v>
+        <v>31.43896562705179</v>
       </c>
       <c r="J20">
-        <v>10.45492622296308</v>
+        <v>9.42136442218087</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.15992723205961</v>
+        <v>9.414751053998234</v>
       </c>
       <c r="M20">
-        <v>126.0382558088876</v>
+        <v>71.46337666475316</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.082869162759321</v>
+        <v>6.656163206379627</v>
       </c>
       <c r="D21">
-        <v>5.768048466778378</v>
+        <v>5.958549403720129</v>
       </c>
       <c r="E21">
-        <v>16.14005110666922</v>
+        <v>11.65595944660433</v>
       </c>
       <c r="F21">
-        <v>37.44809668034739</v>
+        <v>39.66176178387069</v>
       </c>
       <c r="G21">
-        <v>61.505015539044</v>
+        <v>49.99727007875332</v>
       </c>
       <c r="H21">
-        <v>15.10274936761795</v>
+        <v>19.35682755157421</v>
       </c>
       <c r="I21">
-        <v>28.36951602743312</v>
+        <v>30.95539126904125</v>
       </c>
       <c r="J21">
-        <v>11.76864036859827</v>
+        <v>9.389157691203074</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.44762422767061</v>
+        <v>9.439800688557295</v>
       </c>
       <c r="M21">
-        <v>138.3737783323307</v>
+        <v>75.09624108407249</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.428184722945137</v>
+        <v>6.655646595888384</v>
       </c>
       <c r="D22">
-        <v>5.924766939813964</v>
+        <v>5.999344301645884</v>
       </c>
       <c r="E22">
-        <v>17.57416093620179</v>
+        <v>11.72660151542082</v>
       </c>
       <c r="F22">
-        <v>43.22345364748995</v>
+        <v>39.25905999096706</v>
       </c>
       <c r="G22">
-        <v>70.17058150693238</v>
+        <v>49.58223224620185</v>
       </c>
       <c r="H22">
-        <v>17.2434234037676</v>
+        <v>19.19935990727041</v>
       </c>
       <c r="I22">
-        <v>32.61761499158052</v>
+        <v>30.65483501554014</v>
       </c>
       <c r="J22">
-        <v>12.89383521030305</v>
+        <v>9.370882619294928</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.53091377633308</v>
+        <v>9.45845286981414</v>
       </c>
       <c r="M22">
-        <v>148.2402986120889</v>
+        <v>77.37596944642796</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.23247634381609</v>
+        <v>6.65583887400572</v>
       </c>
       <c r="D23">
-        <v>5.84156556626514</v>
+        <v>5.977612802533137</v>
       </c>
       <c r="E23">
-        <v>16.75742608556271</v>
+        <v>11.68867612538726</v>
       </c>
       <c r="F23">
-        <v>39.91023351430211</v>
+        <v>39.47192734383522</v>
       </c>
       <c r="G23">
-        <v>65.20999657208789</v>
+        <v>49.800025900674</v>
       </c>
       <c r="H23">
-        <v>16.01679522489798</v>
+        <v>19.28268612041381</v>
       </c>
       <c r="I23">
-        <v>30.18525006747704</v>
+        <v>30.81380668324053</v>
       </c>
       <c r="J23">
-        <v>12.25144479293045</v>
+        <v>9.380379032462431</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.91450784855388</v>
+        <v>9.448287788055048</v>
       </c>
       <c r="M23">
-        <v>142.6852928701812</v>
+        <v>76.16791175597658</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.657017532217676</v>
+        <v>6.658399537485544</v>
       </c>
       <c r="D24">
-        <v>5.519363793823424</v>
+        <v>5.894429121169073</v>
       </c>
       <c r="E24">
-        <v>14.41737723320551</v>
+        <v>11.54996281970891</v>
       </c>
       <c r="F24">
-        <v>30.89330413149122</v>
+        <v>40.32275182333478</v>
       </c>
       <c r="G24">
-        <v>51.5359623817823</v>
+        <v>50.70490445168261</v>
       </c>
       <c r="H24">
-        <v>12.65639297136936</v>
+        <v>19.61387193326795</v>
       </c>
       <c r="I24">
-        <v>23.48408729716064</v>
+        <v>31.44712573342002</v>
       </c>
       <c r="J24">
-        <v>10.43568965731712</v>
+        <v>9.421936879842049</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.14087216070252</v>
+        <v>9.414379829335532</v>
       </c>
       <c r="M24">
-        <v>125.8510177995462</v>
+        <v>71.40240959023322</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.425865392897566</v>
+        <v>6.665071832573463</v>
       </c>
       <c r="D25">
-        <v>5.161872384456269</v>
+        <v>5.803035765368956</v>
       </c>
       <c r="E25">
-        <v>12.4057964476733</v>
+        <v>11.41108691131745</v>
       </c>
       <c r="F25">
-        <v>24.20283550960526</v>
+        <v>41.33177093493654</v>
       </c>
       <c r="G25">
-        <v>41.06062446596844</v>
+        <v>51.84150765758749</v>
       </c>
       <c r="H25">
-        <v>10.12336670098079</v>
+        <v>20.00350507092281</v>
       </c>
       <c r="I25">
-        <v>18.34245616845912</v>
+        <v>32.19452390848097</v>
       </c>
       <c r="J25">
-        <v>8.907555414224813</v>
+        <v>9.478329958313356</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.607450058111878</v>
+        <v>9.387457817955481</v>
       </c>
       <c r="M25">
-        <v>110.3681020440906</v>
+        <v>65.85972914127518</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_98/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.673343051422484</v>
+        <v>4.316610757446968</v>
       </c>
       <c r="D2">
-        <v>5.734513289306478</v>
+        <v>4.889959809466492</v>
       </c>
       <c r="E2">
-        <v>11.31826408210318</v>
+        <v>11.04354063803453</v>
       </c>
       <c r="F2">
-        <v>42.14967022228711</v>
+        <v>20.60840439085039</v>
       </c>
       <c r="G2">
-        <v>52.80682490552394</v>
+        <v>35.0975396882376</v>
       </c>
       <c r="H2">
-        <v>20.31745731006703</v>
+        <v>9.239652135156224</v>
       </c>
       <c r="I2">
-        <v>32.79796680540149</v>
+        <v>15.41042388880029</v>
       </c>
       <c r="J2">
-        <v>9.529443551007709</v>
+        <v>7.889659774740908</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.375771395673613</v>
+        <v>8.563581215652974</v>
       </c>
       <c r="M2">
-        <v>61.43846333124413</v>
+        <v>99.39797103822053</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.681041832947805</v>
+        <v>4.25190923415051</v>
       </c>
       <c r="D3">
-        <v>5.687414038674131</v>
+        <v>4.700116810472755</v>
       </c>
       <c r="E3">
-        <v>11.2613235182166</v>
+        <v>10.13585582757202</v>
       </c>
       <c r="F3">
-        <v>42.74915512258869</v>
+        <v>19.57904945072194</v>
       </c>
       <c r="G3">
-        <v>53.53667225040169</v>
+        <v>31.89931641649013</v>
       </c>
       <c r="H3">
-        <v>20.54675264338139</v>
+        <v>9.157451838382698</v>
       </c>
       <c r="I3">
-        <v>33.23912315327222</v>
+        <v>14.78332856943116</v>
       </c>
       <c r="J3">
-        <v>9.569899224022988</v>
+        <v>7.218170928958018</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.372842443310841</v>
+        <v>7.864870726905402</v>
       </c>
       <c r="M3">
-        <v>58.23483566748132</v>
+        <v>91.88431455841874</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.686801126405119</v>
+        <v>4.215703591772712</v>
       </c>
       <c r="D4">
-        <v>5.658205573558097</v>
+        <v>4.580848708806571</v>
       </c>
       <c r="E4">
-        <v>11.22932914586932</v>
+        <v>9.575667328596783</v>
       </c>
       <c r="F4">
-        <v>43.1390554449941</v>
+        <v>19.25501163644953</v>
       </c>
       <c r="G4">
-        <v>54.02072405493974</v>
+        <v>30.42424949873402</v>
       </c>
       <c r="H4">
-        <v>20.6955840357793</v>
+        <v>9.199618611822455</v>
       </c>
       <c r="I4">
-        <v>33.52559033610807</v>
+        <v>14.67287890096961</v>
       </c>
       <c r="J4">
-        <v>9.597555175733657</v>
+        <v>6.806039892879761</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.373477962316091</v>
+        <v>7.432054828069249</v>
       </c>
       <c r="M4">
-        <v>56.16797407622531</v>
+        <v>87.16809509495181</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.689407651803537</v>
+        <v>4.201724460598407</v>
       </c>
       <c r="D5">
-        <v>5.646235863479674</v>
+        <v>4.53158282329287</v>
       </c>
       <c r="E5">
-        <v>11.21704091147557</v>
+        <v>9.345561376436518</v>
       </c>
       <c r="F5">
-        <v>43.30336136916682</v>
+        <v>19.18865818117165</v>
       </c>
       <c r="G5">
-        <v>54.22681461200769</v>
+        <v>29.90522953018829</v>
       </c>
       <c r="H5">
-        <v>20.75824091056126</v>
+        <v>9.23602415958748</v>
       </c>
       <c r="I5">
-        <v>33.64620907896523</v>
+        <v>14.67322286196676</v>
       </c>
       <c r="J5">
-        <v>9.609525829153192</v>
+        <v>6.637183657023447</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.37434494655623</v>
+        <v>7.253854063884758</v>
       </c>
       <c r="M5">
-        <v>55.30108309999704</v>
+        <v>85.21351157730966</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.689856140926112</v>
+        <v>4.199447402461245</v>
       </c>
       <c r="D6">
-        <v>5.644244422177898</v>
+        <v>4.523362866465999</v>
       </c>
       <c r="E6">
-        <v>11.2150458337274</v>
+        <v>9.307215599092638</v>
       </c>
       <c r="F6">
-        <v>43.33096962518434</v>
+        <v>19.1813105076779</v>
       </c>
       <c r="G6">
-        <v>54.26156384491723</v>
+        <v>29.82381111518371</v>
       </c>
       <c r="H6">
-        <v>20.76876580798456</v>
+        <v>9.24312135509199</v>
       </c>
       <c r="I6">
-        <v>33.66647099991461</v>
+        <v>14.67578693082479</v>
       </c>
       <c r="J6">
-        <v>9.611555650587594</v>
+        <v>6.60906690610503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.374525512062732</v>
+        <v>7.224132419055644</v>
       </c>
       <c r="M6">
-        <v>55.1556649816991</v>
+        <v>84.88681247677339</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.686835227918285</v>
+        <v>4.215512049384565</v>
       </c>
       <c r="D7">
-        <v>5.658044409650068</v>
+        <v>4.580186948430497</v>
       </c>
       <c r="E7">
-        <v>11.2291603825272</v>
+        <v>9.572572666699523</v>
       </c>
       <c r="F7">
-        <v>43.14124947845234</v>
+        <v>19.25386418797431</v>
       </c>
       <c r="G7">
-        <v>54.0234679433152</v>
+        <v>30.41692614860025</v>
       </c>
       <c r="H7">
-        <v>20.69642094245073</v>
+        <v>9.200036755555804</v>
       </c>
       <c r="I7">
-        <v>33.52720137997697</v>
+        <v>14.67271044893579</v>
       </c>
       <c r="J7">
-        <v>9.597713788967779</v>
+        <v>6.803767404660349</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.3734871983141</v>
+        <v>7.429659927659974</v>
       </c>
       <c r="M7">
-        <v>56.15638189652078</v>
+        <v>87.14187502638565</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.675783356686321</v>
+        <v>4.293492628372585</v>
       </c>
       <c r="D8">
-        <v>5.718336944361003</v>
+        <v>4.825070269949634</v>
       </c>
       <c r="E8">
-        <v>11.29801740182394</v>
+        <v>10.73039309843748</v>
       </c>
       <c r="F8">
-        <v>42.35180345934765</v>
+        <v>20.17749582759865</v>
       </c>
       <c r="G8">
-        <v>53.05089875970305</v>
+        <v>33.89837955731548</v>
       </c>
       <c r="H8">
-        <v>20.39483930904912</v>
+        <v>9.189465516059988</v>
       </c>
       <c r="I8">
-        <v>32.94681549405306</v>
+        <v>15.07891841252316</v>
       </c>
       <c r="J8">
-        <v>9.542803609186384</v>
+        <v>7.657437134475225</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.374253923374026</v>
+        <v>8.322854294051311</v>
       </c>
       <c r="M8">
-        <v>60.35482201737097</v>
+        <v>96.82386543544564</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.662302300687874</v>
+        <v>4.482188346981994</v>
       </c>
       <c r="D9">
-        <v>5.834026725980261</v>
+        <v>5.283607594084888</v>
       </c>
       <c r="E9">
-        <v>11.45641451822917</v>
+        <v>13.05348754563596</v>
       </c>
       <c r="F9">
-        <v>40.98001310785841</v>
+        <v>26.20711694789034</v>
       </c>
       <c r="G9">
-        <v>51.43806692976239</v>
+        <v>44.25168412631281</v>
       </c>
       <c r="H9">
-        <v>19.86800143011201</v>
+        <v>10.88871109996978</v>
       </c>
       <c r="I9">
-        <v>31.93437262008479</v>
+        <v>19.91019365311992</v>
       </c>
       <c r="J9">
-        <v>9.457820782860441</v>
+        <v>9.396224435385014</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.395251550708334</v>
+        <v>10.10212624331766</v>
       </c>
       <c r="M9">
-        <v>67.78013527388318</v>
+        <v>115.4495321658986</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.65739655994985</v>
+        <v>4.798292167930073</v>
       </c>
       <c r="D10">
-        <v>5.917147617584348</v>
+        <v>5.607652441747416</v>
       </c>
       <c r="E10">
-        <v>11.58677636608921</v>
+        <v>14.9832471858675</v>
       </c>
       <c r="F10">
-        <v>40.08445656082965</v>
+        <v>32.983216845799</v>
       </c>
       <c r="G10">
-        <v>50.4461904755676</v>
+        <v>54.7349325853196</v>
       </c>
       <c r="H10">
-        <v>19.52139066273046</v>
+        <v>13.43882174947224</v>
       </c>
       <c r="I10">
-        <v>31.27006268304687</v>
+        <v>25.05210826929064</v>
       </c>
       <c r="J10">
-        <v>9.409729517744063</v>
+        <v>10.87112766036338</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.42281588868917</v>
+        <v>11.5707553513717</v>
       </c>
       <c r="M10">
-        <v>72.72772105336047</v>
+        <v>130.0425096545858</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.656251688412422</v>
+        <v>5.052847245013899</v>
       </c>
       <c r="D11">
-        <v>5.954486387083196</v>
+        <v>5.752343568192654</v>
       </c>
       <c r="E11">
-        <v>11.64905505046076</v>
+        <v>16.01692261006437</v>
       </c>
       <c r="F11">
-        <v>39.70260467454466</v>
+        <v>36.96272300472194</v>
       </c>
       <c r="G11">
-        <v>50.04006908227124</v>
+        <v>60.77250573007537</v>
       </c>
       <c r="H11">
-        <v>19.37275925630432</v>
+        <v>14.92228729890062</v>
       </c>
       <c r="I11">
-        <v>30.98583113593287</v>
+        <v>28.01058027906214</v>
       </c>
       <c r="J11">
-        <v>9.39108410197402</v>
+        <v>11.67265730212055</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.438045014415234</v>
+        <v>12.35441690418484</v>
       </c>
       <c r="M11">
-        <v>74.86633959651576</v>
+        <v>137.5025215302142</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.655974531167091</v>
+        <v>5.159390664062655</v>
       </c>
       <c r="D12">
-        <v>5.968551917030519</v>
+        <v>5.80666289099876</v>
       </c>
       <c r="E12">
-        <v>11.67306023029652</v>
+        <v>16.45504470816641</v>
       </c>
       <c r="F12">
-        <v>39.56178924431418</v>
+        <v>38.69878375954164</v>
       </c>
       <c r="G12">
-        <v>49.89304734508645</v>
+        <v>63.38919267640534</v>
       </c>
       <c r="H12">
-        <v>19.31780162673316</v>
+        <v>15.56733558779583</v>
       </c>
       <c r="I12">
-        <v>30.88084984459807</v>
+        <v>29.2928435411142</v>
       </c>
       <c r="J12">
-        <v>9.384498508675591</v>
+        <v>12.01465896067698</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.444202925236626</v>
+        <v>12.68593274180148</v>
       </c>
       <c r="M12">
-        <v>75.65996881028816</v>
+        <v>140.5855207432026</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.656027265053488</v>
+        <v>5.135820421777908</v>
       </c>
       <c r="D13">
-        <v>5.965526028935384</v>
+        <v>5.794989668747253</v>
       </c>
       <c r="E13">
-        <v>11.66787163941568</v>
+        <v>16.35784377043017</v>
       </c>
       <c r="F13">
-        <v>39.59194623069823</v>
+        <v>38.31153736224995</v>
       </c>
       <c r="G13">
-        <v>49.92440544281484</v>
+        <v>62.80629542232194</v>
       </c>
       <c r="H13">
-        <v>19.32957834254636</v>
+        <v>15.42355037794917</v>
       </c>
       <c r="I13">
-        <v>30.90334040539993</v>
+        <v>29.00718650688952</v>
       </c>
       <c r="J13">
-        <v>9.385895538247722</v>
+        <v>11.93867120183829</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.442859254439799</v>
+        <v>12.61241685622664</v>
       </c>
       <c r="M13">
-        <v>75.48976914020803</v>
+        <v>139.9056619888195</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.656225751799242</v>
+        <v>5.06135153439502</v>
       </c>
       <c r="D14">
-        <v>5.955645079523954</v>
+        <v>5.756823319043589</v>
       </c>
       <c r="E14">
-        <v>11.65102155933261</v>
+        <v>16.05177504812918</v>
       </c>
       <c r="F14">
-        <v>39.69094320939008</v>
+        <v>37.09989952479701</v>
       </c>
       <c r="G14">
-        <v>50.02783620579879</v>
+        <v>60.97960386912938</v>
       </c>
       <c r="H14">
-        <v>19.3682111346081</v>
+        <v>14.97329905706409</v>
       </c>
       <c r="I14">
-        <v>30.97714072542884</v>
+        <v>28.11205900385653</v>
       </c>
       <c r="J14">
-        <v>9.390532720483987</v>
+        <v>11.69981540164616</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.438543770120695</v>
+        <v>12.3808030088396</v>
       </c>
       <c r="M14">
-        <v>74.93195745835089</v>
+        <v>137.7495176581215</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.656367699341955</v>
+        <v>5.017337503317374</v>
       </c>
       <c r="D15">
-        <v>5.949582925303137</v>
+        <v>5.733377385967279</v>
       </c>
       <c r="E15">
-        <v>11.64075510815438</v>
+        <v>15.87161918592712</v>
       </c>
       <c r="F15">
-        <v>39.75207789261471</v>
+        <v>36.39269325268918</v>
       </c>
       <c r="G15">
-        <v>50.09208054724987</v>
+        <v>59.91126198842181</v>
       </c>
       <c r="H15">
-        <v>19.39204828775973</v>
+        <v>14.71022889436671</v>
       </c>
       <c r="I15">
-        <v>31.02269289072506</v>
+        <v>27.58857474799322</v>
       </c>
       <c r="J15">
-        <v>9.393435304104141</v>
+        <v>11.55952354015471</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.435951450298887</v>
+        <v>12.24438444710682</v>
       </c>
       <c r="M15">
-        <v>74.58816708375709</v>
+        <v>136.4695438256606</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.657493257237085</v>
+        <v>4.782652051053807</v>
       </c>
       <c r="D16">
-        <v>5.914697419140227</v>
+        <v>5.59813910930346</v>
       </c>
       <c r="E16">
-        <v>11.58276565849896</v>
+        <v>14.92033331355291</v>
       </c>
       <c r="F16">
-        <v>40.10993470458386</v>
+        <v>32.74737762671085</v>
       </c>
       <c r="G16">
-        <v>50.47366270880151</v>
+        <v>54.37506327113252</v>
       </c>
       <c r="H16">
-        <v>19.53128818267558</v>
+        <v>13.35065995426436</v>
       </c>
       <c r="I16">
-        <v>31.28900505732279</v>
+        <v>24.87574126532867</v>
       </c>
       <c r="J16">
-        <v>9.411013939532856</v>
+        <v>10.82259606412712</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.42187511447673</v>
+        <v>11.52299128366267</v>
       </c>
       <c r="M16">
-        <v>72.58569238351117</v>
+        <v>129.5801973491977</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.658462169072365</v>
+        <v>4.649416548491259</v>
       </c>
       <c r="D17">
-        <v>5.893170904504711</v>
+        <v>5.514468762212505</v>
       </c>
       <c r="E17">
-        <v>11.54794886435324</v>
+        <v>14.38708346955109</v>
       </c>
       <c r="F17">
-        <v>40.33608605990852</v>
+        <v>30.78352111467589</v>
       </c>
       <c r="G17">
-        <v>50.71949678136004</v>
+        <v>51.36724895559502</v>
       </c>
       <c r="H17">
-        <v>19.61904110225014</v>
+        <v>12.61521282418152</v>
       </c>
       <c r="I17">
-        <v>31.45702687740077</v>
+        <v>23.40137142922682</v>
       </c>
       <c r="J17">
-        <v>9.422632751557217</v>
+        <v>10.41244703151617</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.413931669912548</v>
+        <v>11.11784085287297</v>
       </c>
       <c r="M17">
-        <v>71.32844870771694</v>
+        <v>125.6245319079357</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.659121746905148</v>
+        <v>4.577600094105811</v>
       </c>
       <c r="D18">
-        <v>5.880745208809119</v>
+        <v>5.46609513625328</v>
       </c>
       <c r="E18">
-        <v>11.52820372365369</v>
+        <v>14.0929887216428</v>
       </c>
       <c r="F18">
-        <v>40.46855925300766</v>
+        <v>29.72986694043534</v>
       </c>
       <c r="G18">
-        <v>50.8651200896337</v>
+        <v>49.74408881197305</v>
       </c>
       <c r="H18">
-        <v>19.67036385197242</v>
+        <v>12.2195193515586</v>
       </c>
       <c r="I18">
-        <v>31.55535530597948</v>
+        <v>22.6054575000156</v>
       </c>
       <c r="J18">
-        <v>9.429619108711245</v>
+        <v>10.18716997505953</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.409615756872505</v>
+        <v>10.89415698288011</v>
       </c>
       <c r="M18">
-        <v>70.59477076896006</v>
+        <v>123.4148728351361</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.659362633296824</v>
+        <v>4.568380111763422</v>
       </c>
       <c r="D19">
-        <v>5.876530666144155</v>
+        <v>5.449674006699909</v>
       </c>
       <c r="E19">
-        <v>11.52156673560272</v>
+        <v>13.99519061310869</v>
       </c>
       <c r="F19">
-        <v>40.51382084009072</v>
+        <v>29.38456459423419</v>
       </c>
       <c r="G19">
-        <v>50.91514304475726</v>
+        <v>49.21049448313548</v>
       </c>
       <c r="H19">
-        <v>19.68788602811756</v>
+        <v>12.08964714974453</v>
       </c>
       <c r="I19">
-        <v>31.58893535041548</v>
+        <v>22.34375830620551</v>
       </c>
       <c r="J19">
-        <v>9.432036391997272</v>
+        <v>10.11240326156553</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.4081977795484</v>
+        <v>10.81973535526659</v>
       </c>
       <c r="M19">
-        <v>70.34455287010249</v>
+        <v>122.6757195566747</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.658348439901342</v>
+        <v>4.663303814190139</v>
       </c>
       <c r="D20">
-        <v>5.895467056976933</v>
+        <v>5.523401397781686</v>
       </c>
       <c r="E20">
-        <v>11.55162618046133</v>
+        <v>14.44244271963454</v>
       </c>
       <c r="F20">
-        <v>40.31176301613653</v>
+        <v>30.98431051809099</v>
       </c>
       <c r="G20">
-        <v>50.69288793204867</v>
+        <v>51.67576492280681</v>
       </c>
       <c r="H20">
-        <v>19.60961154673912</v>
+        <v>12.69052340637112</v>
       </c>
       <c r="I20">
-        <v>31.43896562705179</v>
+        <v>23.5526272611743</v>
       </c>
       <c r="J20">
-        <v>9.42136442218087</v>
+        <v>10.45492622296308</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.414751053998234</v>
+        <v>11.1599272320596</v>
       </c>
       <c r="M20">
-        <v>71.46337666475316</v>
+        <v>126.0382558088877</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.656163206379627</v>
+        <v>5.082869162759363</v>
       </c>
       <c r="D21">
-        <v>5.958549403720129</v>
+        <v>5.768048466778334</v>
       </c>
       <c r="E21">
-        <v>11.65595944660433</v>
+        <v>16.14005110666929</v>
       </c>
       <c r="F21">
-        <v>39.66176178387069</v>
+        <v>37.44809668034773</v>
       </c>
       <c r="G21">
-        <v>49.99727007875332</v>
+        <v>61.50501553904443</v>
       </c>
       <c r="H21">
-        <v>19.35682755157421</v>
+        <v>15.10274936761802</v>
       </c>
       <c r="I21">
-        <v>30.95539126904125</v>
+        <v>28.36951602743336</v>
       </c>
       <c r="J21">
-        <v>9.389157691203074</v>
+        <v>11.76864036859837</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.439800688557295</v>
+        <v>12.44762422767069</v>
       </c>
       <c r="M21">
-        <v>75.09624108407249</v>
+        <v>138.3737783323309</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.655646595888384</v>
+        <v>5.428184722945153</v>
       </c>
       <c r="D22">
-        <v>5.999344301645884</v>
+        <v>5.924766939813978</v>
       </c>
       <c r="E22">
-        <v>11.72660151542082</v>
+        <v>17.57416093620186</v>
       </c>
       <c r="F22">
-        <v>39.25905999096706</v>
+        <v>43.2234536474901</v>
       </c>
       <c r="G22">
-        <v>49.58223224620185</v>
+        <v>70.17058150693227</v>
       </c>
       <c r="H22">
-        <v>19.19935990727041</v>
+        <v>17.24342340376767</v>
       </c>
       <c r="I22">
-        <v>30.65483501554014</v>
+        <v>32.61761499158058</v>
       </c>
       <c r="J22">
-        <v>9.370882619294928</v>
+        <v>12.89383521030309</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.45845286981414</v>
+        <v>13.53091377633313</v>
       </c>
       <c r="M22">
-        <v>77.37596944642796</v>
+        <v>148.2402986120894</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.65583887400572</v>
+        <v>5.232476343816034</v>
       </c>
       <c r="D23">
-        <v>5.977612802533137</v>
+        <v>5.841565566265163</v>
       </c>
       <c r="E23">
-        <v>11.68867612538726</v>
+        <v>16.75742608556254</v>
       </c>
       <c r="F23">
-        <v>39.47192734383522</v>
+        <v>39.91023351430164</v>
       </c>
       <c r="G23">
-        <v>49.800025900674</v>
+        <v>65.20999657208733</v>
       </c>
       <c r="H23">
-        <v>19.28268612041381</v>
+        <v>16.0167952248978</v>
       </c>
       <c r="I23">
-        <v>30.81380668324053</v>
+        <v>30.18525006747674</v>
       </c>
       <c r="J23">
-        <v>9.380379032462431</v>
+        <v>12.25144479293036</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.448287788055048</v>
+        <v>12.91450784855378</v>
       </c>
       <c r="M23">
-        <v>76.16791175597658</v>
+        <v>142.6852928701808</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.658399537485544</v>
+        <v>4.657017532217655</v>
       </c>
       <c r="D24">
-        <v>5.894429121169073</v>
+        <v>5.51936379382333</v>
       </c>
       <c r="E24">
-        <v>11.54996281970891</v>
+        <v>14.41737723320551</v>
       </c>
       <c r="F24">
-        <v>40.32275182333478</v>
+        <v>30.8933041314909</v>
       </c>
       <c r="G24">
-        <v>50.70490445168261</v>
+        <v>51.53596238178171</v>
       </c>
       <c r="H24">
-        <v>19.61387193326795</v>
+        <v>12.65639297136922</v>
       </c>
       <c r="I24">
-        <v>31.44712573342002</v>
+        <v>23.48408729716035</v>
       </c>
       <c r="J24">
-        <v>9.421936879842049</v>
+        <v>10.43568965731707</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.414379829335532</v>
+        <v>11.14087216070251</v>
       </c>
       <c r="M24">
-        <v>71.40240959023322</v>
+        <v>125.8510177995461</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.665071832573463</v>
+        <v>4.425865392897573</v>
       </c>
       <c r="D25">
-        <v>5.803035765368956</v>
+        <v>5.161872384456322</v>
       </c>
       <c r="E25">
-        <v>11.41108691131745</v>
+        <v>12.40579644767333</v>
       </c>
       <c r="F25">
-        <v>41.33177093493654</v>
+        <v>24.20283550960526</v>
       </c>
       <c r="G25">
-        <v>51.84150765758749</v>
+        <v>41.06062446596849</v>
       </c>
       <c r="H25">
-        <v>20.00350507092281</v>
+        <v>10.12336670098082</v>
       </c>
       <c r="I25">
-        <v>32.19452390848097</v>
+        <v>18.34245616845914</v>
       </c>
       <c r="J25">
-        <v>9.478329958313356</v>
+        <v>8.907555414224836</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.387457817955481</v>
+        <v>9.607450058111915</v>
       </c>
       <c r="M25">
-        <v>65.85972914127518</v>
+        <v>110.3681020440909</v>
       </c>
       <c r="N25">
         <v>0</v>
